--- a/input_PS.xlsx
+++ b/input_PS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\coding\microgridOptimalDispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1019,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>128.62754140862461</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>174.57815779938488</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1079,8 +1079,16 @@
       <c r="I2">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f ca="1">30*RAND() + 100</f>
+        <v>113.94647631535871</v>
+      </c>
+      <c r="K2">
+        <f ca="1">150+30*RAND()</f>
+        <v>167.31518282017402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1100,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>118.82978953468745</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>169.65736293115151</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1111,8 +1119,16 @@
       <c r="I3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" ca="1" si="3">30*RAND() + 100</f>
+        <v>121.64508916102851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="4">150+30*RAND()</f>
+        <v>160.25889796649864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1132,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>112.77301988526182</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>163.18285088865679</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1143,8 +1159,16 @@
       <c r="I4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" ca="1" si="3"/>
+        <v>117.86295347250828</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="4"/>
+        <v>164.6883589202312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1164,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>100.80040927018642</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>172.49314486678134</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1175,8 +1199,16 @@
       <c r="I5">
         <v>950</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
+        <v>100.19480759244919</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="4"/>
+        <v>164.95013526976436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1196,11 +1228,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>120.15499683857547</v>
       </c>
       <c r="G6">
-        <f>40</f>
-        <v>40</v>
+        <v>178.20666167262272</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1208,8 +1239,16 @@
       <c r="I6">
         <v>750</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
+        <v>110.86362887088193</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="4"/>
+        <v>150.89324222536806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1229,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>123.70512575444295</v>
       </c>
       <c r="G7">
-        <v>45</v>
+        <v>152.50316109799306</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1240,8 +1279,16 @@
       <c r="I7">
         <v>750</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>102.5730339929187</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="4"/>
+        <v>169.93252746023092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1261,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>105.65207964709371</v>
       </c>
       <c r="G8">
-        <v>65</v>
+        <v>179.95581184828791</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1272,8 +1319,16 @@
       <c r="I8">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>129.75442030341287</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="4"/>
+        <v>177.46120629856082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1293,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>119.60828173098345</v>
       </c>
       <c r="G9">
-        <v>70</v>
+        <v>152.7851774547822</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1304,8 +1359,16 @@
       <c r="I9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" ca="1" si="3"/>
+        <v>122.08006234795162</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.411439008711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1325,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>105.76243752799546</v>
       </c>
       <c r="G10">
-        <v>55</v>
+        <v>153.10582508501858</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -1336,8 +1399,16 @@
       <c r="I10">
         <v>950</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" ca="1" si="3"/>
+        <v>119.62366111706864</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="4"/>
+        <v>171.50400189305552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1357,11 +1428,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>123.14621467782891</v>
       </c>
       <c r="G11">
-        <f>40</f>
-        <v>40</v>
+        <v>160.0682537528001</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -1369,8 +1439,16 @@
       <c r="I11">
         <v>750</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>107.24312006728296</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.6677963933723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1390,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>104.64814269856682</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>152.07542561085367</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1401,8 +1479,16 @@
       <c r="I12">
         <v>750</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>128.13649204729262</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="4"/>
+        <v>168.6505196078902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1422,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>129.48352474342454</v>
       </c>
       <c r="G13">
-        <v>65</v>
+        <v>175.83614517886585</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -1433,8 +1519,16 @@
       <c r="I13">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>102.46785828329607</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="4"/>
+        <v>162.40758598045142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1454,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>107.50447060795385</v>
       </c>
       <c r="G14">
-        <v>70</v>
+        <v>178.75240061542371</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -1465,8 +1559,16 @@
       <c r="I14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" ca="1" si="3"/>
+        <v>103.31168519213809</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="4"/>
+        <v>163.41212323472635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1486,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>104.94421390797804</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>166.98249948691364</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -1497,8 +1599,16 @@
       <c r="I15">
         <v>950</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" ca="1" si="3"/>
+        <v>104.09305431353933</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="4"/>
+        <v>169.62883670770435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1518,11 +1628,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>125.41441617767151</v>
       </c>
       <c r="G16">
-        <f>40</f>
-        <v>40</v>
+        <v>166.91171520557344</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1530,8 +1639,16 @@
       <c r="I16">
         <v>750</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" ca="1" si="3"/>
+        <v>104.402272520314</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="4"/>
+        <v>153.08485629290237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1551,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>112.31733351159315</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>159.79836479132007</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -1562,8 +1679,16 @@
       <c r="I17">
         <v>750</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" ca="1" si="3"/>
+        <v>118.54478765156165</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="4"/>
+        <v>153.13960820014969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1583,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35</v>
+        <v>125.33334482233883</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>151.11011959600901</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1594,8 +1719,16 @@
       <c r="I18">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" ca="1" si="3"/>
+        <v>127.53830303461385</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.78631209601269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1615,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>127.40945193937304</v>
       </c>
       <c r="G19">
-        <v>70</v>
+        <v>169.4498235247703</v>
       </c>
       <c r="H19">
         <v>17</v>
@@ -1626,8 +1759,16 @@
       <c r="I19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" ca="1" si="3"/>
+        <v>125.35188293038041</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="4"/>
+        <v>165.8073080333676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1647,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>123.40045189698685</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>165.02378075179504</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -1658,8 +1799,16 @@
       <c r="I20">
         <v>950</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" ca="1" si="3"/>
+        <v>111.45651366985483</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.13201064217253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1679,11 +1828,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>109.88347082230493</v>
       </c>
       <c r="G21">
-        <f>40</f>
-        <v>40</v>
+        <v>161.6469785087879</v>
       </c>
       <c r="H21">
         <v>19</v>
@@ -1691,8 +1839,16 @@
       <c r="I21">
         <v>750</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" ca="1" si="3"/>
+        <v>122.53825393363574</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="4"/>
+        <v>160.66490248025309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1712,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>100.44450765659805</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>153.24629097115599</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -1723,8 +1879,16 @@
       <c r="I22">
         <v>750</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" ca="1" si="3"/>
+        <v>121.53411645331893</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="4"/>
+        <v>166.70724941962175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1744,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>109.22349317538347</v>
       </c>
       <c r="G23">
-        <v>65</v>
+        <v>160.26348211601245</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -1755,8 +1919,16 @@
       <c r="I23">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" ca="1" si="3"/>
+        <v>124.57865646734621</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="4"/>
+        <v>170.62394475283367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1776,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>104.63202646390262</v>
       </c>
       <c r="G24">
-        <v>70</v>
+        <v>174.47485570013495</v>
       </c>
       <c r="H24">
         <v>22</v>
@@ -1787,8 +1959,16 @@
       <c r="I24">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" ca="1" si="3"/>
+        <v>118.34528098812935</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="4"/>
+        <v>156.45630641411881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1808,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>113.68998329123582</v>
       </c>
       <c r="G25">
-        <v>55</v>
+        <v>176.49486815186026</v>
       </c>
       <c r="H25">
         <v>23</v>
@@ -1819,8 +1999,16 @@
       <c r="I25">
         <v>950</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" ca="1" si="3"/>
+        <v>109.41950074130574</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="4"/>
+        <v>156.69718089403051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1840,11 +2028,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>123.21595109723705</v>
       </c>
       <c r="G26">
-        <f>40</f>
-        <v>40</v>
+        <v>162.39575908056366</v>
       </c>
       <c r="H26">
         <v>24</v>
@@ -1852,8 +2039,16 @@
       <c r="I26">
         <v>750</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.13648722355583</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="4"/>
+        <v>175.27237155385049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1873,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>109.47730185003937</v>
       </c>
       <c r="G27">
-        <v>45</v>
+        <v>166.1471639477781</v>
       </c>
       <c r="H27">
         <v>25</v>
@@ -1884,8 +2079,16 @@
       <c r="I27">
         <v>750</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" ca="1" si="3"/>
+        <v>115.42874836049614</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="4"/>
+        <v>153.34092253285786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1905,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>104.67697601455532</v>
       </c>
       <c r="G28">
-        <v>65</v>
+        <v>156.09070578329869</v>
       </c>
       <c r="H28">
         <v>26</v>
@@ -1916,8 +2119,16 @@
       <c r="I28">
         <v>800</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" ca="1" si="3"/>
+        <v>115.00478649247596</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="4"/>
+        <v>174.68058797219436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1937,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>129.16402240541285</v>
       </c>
       <c r="G29">
-        <v>70</v>
+        <v>165.67944541853723</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -1948,8 +2159,16 @@
       <c r="I29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" ca="1" si="3"/>
+        <v>115.16429612904895</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="4"/>
+        <v>159.37183229168588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1969,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>117.34971875814394</v>
       </c>
       <c r="G30">
-        <v>55</v>
+        <v>179.22267331074562</v>
       </c>
       <c r="H30">
         <v>28</v>
@@ -1980,8 +2199,16 @@
       <c r="I30">
         <v>950</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" ca="1" si="3"/>
+        <v>104.94894802194611</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="4"/>
+        <v>174.51294047055123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2001,11 +2228,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>101.62880946025017</v>
       </c>
       <c r="G31">
-        <f>40</f>
-        <v>40</v>
+        <v>179.9861849646704</v>
       </c>
       <c r="H31">
         <v>29</v>
@@ -2013,8 +2239,16 @@
       <c r="I31">
         <v>750</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" ca="1" si="3"/>
+        <v>129.48359823541901</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="4"/>
+        <v>160.19584599801112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2034,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>100.77085727821445</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>158.57677324759271</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -2045,8 +2279,16 @@
       <c r="I32">
         <v>750</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>120.89993745598602</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>159.37669450715856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2066,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>103.57040188206355</v>
       </c>
       <c r="G33">
-        <v>65</v>
+        <v>179.4143924146191</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -2077,8 +2319,16 @@
       <c r="I33">
         <v>800</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" ca="1" si="3"/>
+        <v>109.71850193846879</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="4"/>
+        <v>166.36625771753347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2098,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>121.9716007547176</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>156.871715000721</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -2109,8 +2359,16 @@
       <c r="I34">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.85834357862508</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="4"/>
+        <v>158.23997992684383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2130,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>126.17580995122833</v>
       </c>
       <c r="G35">
-        <v>55</v>
+        <v>158.03434705037992</v>
       </c>
       <c r="H35">
         <v>33</v>
@@ -2141,8 +2399,16 @@
       <c r="I35">
         <v>950</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.20395816870399</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="4"/>
+        <v>165.39051645510892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2162,11 +2428,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>106.44008718974635</v>
       </c>
       <c r="G36">
-        <f>40</f>
-        <v>40</v>
+        <v>151.42438235565581</v>
       </c>
       <c r="H36">
         <v>34</v>
@@ -2174,8 +2439,16 @@
       <c r="I36">
         <v>750</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>103.57817773570895</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="4"/>
+        <v>169.43387429721187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2195,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>110.40862425250117</v>
       </c>
       <c r="G37">
-        <v>45</v>
+        <v>176.33029159146875</v>
       </c>
       <c r="H37">
         <v>35</v>
@@ -2206,8 +2479,16 @@
       <c r="I37">
         <v>750</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>124.62760487076009</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="4"/>
+        <v>164.77758425714214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2227,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>121.58224949961053</v>
       </c>
       <c r="G38">
-        <v>65</v>
+        <v>174.71418715764739</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -2238,8 +2519,16 @@
       <c r="I38">
         <v>800</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" ca="1" si="3"/>
+        <v>102.83950923819826</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.07024696822882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2259,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>105.85225828263881</v>
       </c>
       <c r="G39">
-        <v>70</v>
+        <v>160.54549568684229</v>
       </c>
       <c r="H39">
         <v>37</v>
@@ -2270,8 +2559,16 @@
       <c r="I39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>107.0837889292722</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.53351195645845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2291,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>118.79970182952381</v>
       </c>
       <c r="G40">
-        <v>55</v>
+        <v>156.43091882376177</v>
       </c>
       <c r="H40">
         <v>38</v>
@@ -2302,8 +2599,16 @@
       <c r="I40">
         <v>950</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" ca="1" si="3"/>
+        <v>121.58429642557374</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="4"/>
+        <v>153.02502577297432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2323,11 +2628,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>120.49943095344659</v>
       </c>
       <c r="G41">
-        <f>40</f>
-        <v>40</v>
+        <v>177.40742988935418</v>
       </c>
       <c r="H41">
         <v>39</v>
@@ -2335,8 +2639,16 @@
       <c r="I41">
         <v>750</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>106.93225556034622</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="4"/>
+        <v>165.8817318567144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2356,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25</v>
+        <v>127.85042191785912</v>
       </c>
       <c r="G42">
-        <v>45</v>
+        <v>156.26500753335213</v>
       </c>
       <c r="H42">
         <v>40</v>
@@ -2367,8 +2679,16 @@
       <c r="I42">
         <v>750</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>111.76020283234232</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="4"/>
+        <v>171.40474663650653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2388,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>35</v>
+        <v>117.95439673959902</v>
       </c>
       <c r="G43">
-        <v>65</v>
+        <v>160.9935640893151</v>
       </c>
       <c r="H43">
         <v>41</v>
@@ -2399,8 +2719,16 @@
       <c r="I43">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>100.71477084517579</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="4"/>
+        <v>173.34044595973455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2420,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>110.46727974322732</v>
       </c>
       <c r="G44">
-        <v>70</v>
+        <v>165.63436735729528</v>
       </c>
       <c r="H44">
         <v>42</v>
@@ -2431,8 +2759,16 @@
       <c r="I44">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.79481182765213</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.0295932397853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2452,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>111.52762330630279</v>
       </c>
       <c r="G45">
-        <v>55</v>
+        <v>167.94760254757156</v>
       </c>
       <c r="H45">
         <v>43</v>
@@ -2463,8 +2799,16 @@
       <c r="I45">
         <v>950</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" ca="1" si="3"/>
+        <v>124.59990308697388</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="4"/>
+        <v>160.93786742342809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2484,11 +2828,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>102.59180887493261</v>
       </c>
       <c r="G46">
-        <f>40</f>
-        <v>40</v>
+        <v>161.47123716772293</v>
       </c>
       <c r="H46">
         <v>44</v>
@@ -2496,8 +2839,16 @@
       <c r="I46">
         <v>750</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>119.6527150425984</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="4"/>
+        <v>179.20228503588359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2517,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>25</v>
+        <v>117.92249010620432</v>
       </c>
       <c r="G47">
-        <v>45</v>
+        <v>165.31226806772784</v>
       </c>
       <c r="H47">
         <v>45</v>
@@ -2528,8 +2879,16 @@
       <c r="I47">
         <v>750</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f t="shared" ca="1" si="3"/>
+        <v>104.91163794031121</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>161.33997015331443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2549,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>35</v>
+        <v>101.21843171148039</v>
       </c>
       <c r="G48">
-        <v>65</v>
+        <v>164.90483992759403</v>
       </c>
       <c r="H48">
         <v>46</v>
@@ -2560,8 +2919,16 @@
       <c r="I48">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.4003529901474</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="4"/>
+        <v>175.7949294652669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2581,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>113.14961124320045</v>
       </c>
       <c r="G49">
-        <v>70</v>
+        <v>150.85461860019814</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -2592,8 +2959,16 @@
       <c r="I49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.3350327501656</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="4"/>
+        <v>170.06492796445318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2613,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>109.72192881273638</v>
       </c>
       <c r="G50">
-        <v>55</v>
+        <v>154.1269862748305</v>
       </c>
       <c r="H50">
         <v>48</v>
@@ -2624,8 +2999,16 @@
       <c r="I50">
         <v>950</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" ca="1" si="3"/>
+        <v>110.05085931880112</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="4"/>
+        <v>172.29499298019266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2645,11 +3028,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>119.9151073708085</v>
       </c>
       <c r="G51">
-        <f>40</f>
-        <v>40</v>
+        <v>176.74784174424838</v>
       </c>
       <c r="H51">
         <v>49</v>
@@ -2657,8 +3039,16 @@
       <c r="I51">
         <v>750</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.13821695287717</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="4"/>
+        <v>172.86809110006101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2678,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>128.68957615617302</v>
       </c>
       <c r="G52">
-        <v>45</v>
+        <v>156.56879156198266</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -2689,8 +3079,16 @@
       <c r="I52">
         <v>750</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f t="shared" ca="1" si="3"/>
+        <v>117.26017261089409</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="4"/>
+        <v>160.38075593540736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2710,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>35</v>
+        <v>115.28976802681684</v>
       </c>
       <c r="G53">
-        <v>65</v>
+        <v>169.6710145851402</v>
       </c>
       <c r="H53">
         <v>51</v>
@@ -2721,8 +3119,16 @@
       <c r="I53">
         <v>800</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.62646246906671</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="4"/>
+        <v>164.09742799547902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2742,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>105.42048892060959</v>
       </c>
       <c r="G54">
-        <v>70</v>
+        <v>151.48056463048323</v>
       </c>
       <c r="H54">
         <v>52</v>
@@ -2753,8 +3159,16 @@
       <c r="I54">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" ca="1" si="3"/>
+        <v>109.52632671911313</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="4"/>
+        <v>152.07167732034569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2774,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>111.00981721480343</v>
       </c>
       <c r="G55">
-        <v>55</v>
+        <v>176.12401073360039</v>
       </c>
       <c r="H55">
         <v>53</v>
@@ -2785,8 +3199,16 @@
       <c r="I55">
         <v>950</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f t="shared" ca="1" si="3"/>
+        <v>123.61517516459153</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="4"/>
+        <v>172.75844114952656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2806,11 +3228,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>128.69653444730346</v>
       </c>
       <c r="G56">
-        <f>40</f>
-        <v>40</v>
+        <v>157.86103243080854</v>
       </c>
       <c r="H56">
         <v>54</v>
@@ -2818,8 +3239,16 @@
       <c r="I56">
         <v>750</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" ca="1" si="3"/>
+        <v>102.32067813602607</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="4"/>
+        <v>159.94172807190114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2839,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>122.4221237054997</v>
       </c>
       <c r="G57">
-        <v>45</v>
+        <v>179.07161417693143</v>
       </c>
       <c r="H57">
         <v>55</v>
@@ -2850,8 +3279,16 @@
       <c r="I57">
         <v>750</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <f t="shared" ca="1" si="3"/>
+        <v>106.77907242825059</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="4"/>
+        <v>151.22961586040404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -2871,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>35</v>
+        <v>126.6898180703113</v>
       </c>
       <c r="G58">
-        <v>65</v>
+        <v>178.10367502861021</v>
       </c>
       <c r="H58">
         <v>56</v>
@@ -2882,8 +3319,16 @@
       <c r="I58">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f t="shared" ca="1" si="3"/>
+        <v>121.06606546626757</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="4"/>
+        <v>176.09805726710127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2903,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>129.6171889076744</v>
       </c>
       <c r="G59">
-        <v>70</v>
+        <v>159.92846568890911</v>
       </c>
       <c r="H59">
         <v>57</v>
@@ -2914,8 +3359,16 @@
       <c r="I59">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <f t="shared" ca="1" si="3"/>
+        <v>101.29893261363124</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="4"/>
+        <v>168.04213980833981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -2935,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>25</v>
+        <v>121.04588696407929</v>
       </c>
       <c r="G60">
-        <v>55</v>
+        <v>160.02853808449038</v>
       </c>
       <c r="H60">
         <v>58</v>
@@ -2946,8 +3399,16 @@
       <c r="I60">
         <v>950</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f t="shared" ca="1" si="3"/>
+        <v>117.50527482089868</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="4"/>
+        <v>161.22083060268875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2967,11 +3428,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>118.81391686818303</v>
       </c>
       <c r="G61">
-        <f>40</f>
-        <v>40</v>
+        <v>159.31899934460964</v>
       </c>
       <c r="H61">
         <v>59</v>
@@ -2979,8 +3439,16 @@
       <c r="I61">
         <v>750</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f t="shared" ca="1" si="3"/>
+        <v>112.45012466563652</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="4"/>
+        <v>165.95126290099523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3000,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>108.79172624935636</v>
       </c>
       <c r="G62">
-        <v>45</v>
+        <v>170.72715903051579</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -3011,8 +3479,16 @@
       <c r="I62">
         <v>750</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <f t="shared" ca="1" si="3"/>
+        <v>128.71661354302566</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="4"/>
+        <v>170.78400288575406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3032,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>35</v>
+        <v>109.92934369439283</v>
       </c>
       <c r="G63">
-        <v>65</v>
+        <v>158.78408407755575</v>
       </c>
       <c r="H63">
         <v>61</v>
@@ -3043,8 +3519,16 @@
       <c r="I63">
         <v>800</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f t="shared" ca="1" si="3"/>
+        <v>129.60932034101464</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="4"/>
+        <v>169.56045533535249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -3064,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>114.07782961837518</v>
       </c>
       <c r="G64">
-        <v>70</v>
+        <v>176.65371069882704</v>
       </c>
       <c r="H64">
         <v>62</v>
@@ -3075,8 +3559,16 @@
       <c r="I64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f t="shared" ca="1" si="3"/>
+        <v>101.47328481138628</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="4"/>
+        <v>159.23002431288268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3096,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>106.75903147731114</v>
       </c>
       <c r="G65">
-        <v>55</v>
+        <v>150.79488123746884</v>
       </c>
       <c r="H65">
         <v>63</v>
@@ -3107,8 +3599,16 @@
       <c r="I65">
         <v>950</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <f t="shared" ca="1" si="3"/>
+        <v>128.7503866499417</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="4"/>
+        <v>160.06667628331996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3128,11 +3628,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>114.68358961274915</v>
       </c>
       <c r="G66">
-        <f>40</f>
-        <v>40</v>
+        <v>155.43655183980002</v>
       </c>
       <c r="H66">
         <v>64</v>
@@ -3140,31 +3639,39 @@
       <c r="I66">
         <v>750</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" ca="1" si="3"/>
+        <v>100.86735719914805</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="4"/>
+        <v>179.14597959089744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B97" si="3">0.3*I67</f>
+        <f t="shared" ref="B67:B97" si="5">0.3*I67</f>
         <v>225</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C97" si="4">0.3*I67</f>
+        <f t="shared" ref="C67:C97" si="6">0.3*I67</f>
         <v>225</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D97" si="5">0.4*I67</f>
+        <f t="shared" ref="D67:D97" si="7">0.4*I67</f>
         <v>300</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>104.7569866920643</v>
       </c>
       <c r="G67">
-        <v>45</v>
+        <v>157.6797305550966</v>
       </c>
       <c r="H67">
         <v>65</v>
@@ -3172,31 +3679,39 @@
       <c r="I67">
         <v>750</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f t="shared" ref="J67:J97" ca="1" si="8">30*RAND() + 100</f>
+        <v>120.78455022320533</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K97" ca="1" si="9">150+30*RAND()</f>
+        <v>170.59144350576429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>35</v>
+        <v>122.79753892197337</v>
       </c>
       <c r="G68">
-        <v>65</v>
+        <v>153.47228330112853</v>
       </c>
       <c r="H68">
         <v>66</v>
@@ -3204,31 +3719,39 @@
       <c r="I68">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" ca="1" si="8"/>
+        <v>111.40762265612075</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="9"/>
+        <v>151.83797777427299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>113.07404733814285</v>
       </c>
       <c r="G69">
-        <v>70</v>
+        <v>158.7306925266443</v>
       </c>
       <c r="H69">
         <v>67</v>
@@ -3236,31 +3759,39 @@
       <c r="I69">
         <v>1000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" ca="1" si="8"/>
+        <v>104.16455175207425</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="9"/>
+        <v>167.12665285493273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>25</v>
+        <v>103.08313064482471</v>
       </c>
       <c r="G70">
-        <v>55</v>
+        <v>166.24112101778763</v>
       </c>
       <c r="H70">
         <v>68</v>
@@ -3268,32 +3799,39 @@
       <c r="I70">
         <v>950</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" ca="1" si="8"/>
+        <v>103.23191082485168</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="9"/>
+        <v>172.98684655320614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>101.83341136073568</v>
       </c>
       <c r="G71">
-        <f>40</f>
-        <v>40</v>
+        <v>158.04590104537499</v>
       </c>
       <c r="H71">
         <v>69</v>
@@ -3301,31 +3839,39 @@
       <c r="I71">
         <v>750</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f t="shared" ca="1" si="8"/>
+        <v>116.08794606285721</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="9"/>
+        <v>152.25018122122634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>111.78797623558179</v>
       </c>
       <c r="G72">
-        <v>45</v>
+        <v>177.5795928604548</v>
       </c>
       <c r="H72">
         <v>70</v>
@@ -3333,31 +3879,39 @@
       <c r="I72">
         <v>750</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f t="shared" ca="1" si="8"/>
+        <v>110.31181800768977</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="9"/>
+        <v>158.34769106913296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>113.18027026080212</v>
       </c>
       <c r="G73">
-        <v>65</v>
+        <v>156.16943666946011</v>
       </c>
       <c r="H73">
         <v>71</v>
@@ -3365,31 +3919,39 @@
       <c r="I73">
         <v>800</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f t="shared" ca="1" si="8"/>
+        <v>101.77890182624616</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="9"/>
+        <v>152.72024400749581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>30</v>
+        <v>126.10325234444744</v>
       </c>
       <c r="G74">
-        <v>70</v>
+        <v>161.43436195942971</v>
       </c>
       <c r="H74">
         <v>72</v>
@@ -3397,31 +3959,39 @@
       <c r="I74">
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f t="shared" ca="1" si="8"/>
+        <v>128.71636323358712</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="9"/>
+        <v>162.80862342946085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>117.32512354322708</v>
       </c>
       <c r="G75">
-        <v>55</v>
+        <v>170.66332416814012</v>
       </c>
       <c r="H75">
         <v>73</v>
@@ -3429,32 +3999,39 @@
       <c r="I75">
         <v>950</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <f t="shared" ca="1" si="8"/>
+        <v>127.36720470536322</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="9"/>
+        <v>177.16606304064609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>102.59812320383452</v>
       </c>
       <c r="G76">
-        <f>40</f>
-        <v>40</v>
+        <v>161.69230542140215</v>
       </c>
       <c r="H76">
         <v>74</v>
@@ -3462,31 +4039,39 @@
       <c r="I76">
         <v>750</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <f t="shared" ca="1" si="8"/>
+        <v>118.22582641241988</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="9"/>
+        <v>179.91268994045134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>118.29637837986527</v>
       </c>
       <c r="G77">
-        <v>45</v>
+        <v>179.74171430467931</v>
       </c>
       <c r="H77">
         <v>75</v>
@@ -3494,31 +4079,39 @@
       <c r="I77">
         <v>750</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <f t="shared" ca="1" si="8"/>
+        <v>129.90625390904614</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="9"/>
+        <v>153.211747570672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>35</v>
+        <v>107.52127123945361</v>
       </c>
       <c r="G78">
-        <v>65</v>
+        <v>151.95144498682563</v>
       </c>
       <c r="H78">
         <v>76</v>
@@ -3526,31 +4119,39 @@
       <c r="I78">
         <v>800</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <f t="shared" ca="1" si="8"/>
+        <v>101.98174228420486</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="9"/>
+        <v>151.92117574090449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>30</v>
+        <v>121.22387467346171</v>
       </c>
       <c r="G79">
-        <v>70</v>
+        <v>168.83606367845874</v>
       </c>
       <c r="H79">
         <v>77</v>
@@ -3558,31 +4159,39 @@
       <c r="I79">
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f t="shared" ca="1" si="8"/>
+        <v>106.35618818618433</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="9"/>
+        <v>161.54682960345696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>103.95198797143802</v>
       </c>
       <c r="G80">
-        <v>55</v>
+        <v>157.53629168143638</v>
       </c>
       <c r="H80">
         <v>78</v>
@@ -3590,32 +4199,39 @@
       <c r="I80">
         <v>950</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <f t="shared" ca="1" si="8"/>
+        <v>102.80645381404639</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="9"/>
+        <v>175.84046489093737</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>119.46602209036847</v>
       </c>
       <c r="G81">
-        <f>40</f>
-        <v>40</v>
+        <v>165.60781008649496</v>
       </c>
       <c r="H81">
         <v>79</v>
@@ -3623,31 +4239,39 @@
       <c r="I81">
         <v>750</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <f t="shared" ca="1" si="8"/>
+        <v>109.269385728426</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="9"/>
+        <v>150.66620538728532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>25</v>
+        <v>100.98666643810198</v>
       </c>
       <c r="G82">
-        <v>45</v>
+        <v>150.29322029864841</v>
       </c>
       <c r="H82">
         <v>80</v>
@@ -3655,31 +4279,39 @@
       <c r="I82">
         <v>750</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <f t="shared" ca="1" si="8"/>
+        <v>120.73849346806472</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="9"/>
+        <v>153.66018511889121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>105.35485871233168</v>
       </c>
       <c r="G83">
-        <v>65</v>
+        <v>153.44580800047177</v>
       </c>
       <c r="H83">
         <v>81</v>
@@ -3687,31 +4319,39 @@
       <c r="I83">
         <v>800</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <f t="shared" ca="1" si="8"/>
+        <v>118.12582285267672</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="9"/>
+        <v>150.11344629512158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>30</v>
+        <v>126.36484794575961</v>
       </c>
       <c r="G84">
-        <v>70</v>
+        <v>152.24808235035869</v>
       </c>
       <c r="H84">
         <v>82</v>
@@ -3719,31 +4359,39 @@
       <c r="I84">
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <f t="shared" ca="1" si="8"/>
+        <v>110.03157790626044</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="9"/>
+        <v>162.32840125637401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>111.76589453081456</v>
       </c>
       <c r="G85">
-        <v>55</v>
+        <v>170.67839841677335</v>
       </c>
       <c r="H85">
         <v>83</v>
@@ -3751,32 +4399,39 @@
       <c r="I85">
         <v>950</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <f t="shared" ca="1" si="8"/>
+        <v>111.45809868952401</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="9"/>
+        <v>159.07655868869097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>117.48899232831286</v>
       </c>
       <c r="G86">
-        <f>40</f>
-        <v>40</v>
+        <v>152.77810490604682</v>
       </c>
       <c r="H86">
         <v>84</v>
@@ -3784,31 +4439,39 @@
       <c r="I86">
         <v>750</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <f t="shared" ca="1" si="8"/>
+        <v>107.85732154438377</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="9"/>
+        <v>162.06795250263812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>120.38690400670183</v>
       </c>
       <c r="G87">
-        <v>45</v>
+        <v>179.92145737075168</v>
       </c>
       <c r="H87">
         <v>85</v>
@@ -3816,31 +4479,39 @@
       <c r="I87">
         <v>750</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <f t="shared" ca="1" si="8"/>
+        <v>117.06793547586881</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="9"/>
+        <v>169.73173891131663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>35</v>
+        <v>113.70398891684702</v>
       </c>
       <c r="G88">
-        <v>65</v>
+        <v>156.20932515373931</v>
       </c>
       <c r="H88">
         <v>86</v>
@@ -3848,31 +4519,39 @@
       <c r="I88">
         <v>800</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <f t="shared" ca="1" si="8"/>
+        <v>123.41596680681498</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="9"/>
+        <v>151.21138887635374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>30</v>
+        <v>123.5401036748689</v>
       </c>
       <c r="G89">
-        <v>70</v>
+        <v>153.63499413706555</v>
       </c>
       <c r="H89">
         <v>87</v>
@@ -3880,31 +4559,39 @@
       <c r="I89">
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <f t="shared" ca="1" si="8"/>
+        <v>125.21370354989085</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="9"/>
+        <v>164.36493051736699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>25</v>
+        <v>113.76358040870582</v>
       </c>
       <c r="G90">
-        <v>55</v>
+        <v>171.48419888912568</v>
       </c>
       <c r="H90">
         <v>88</v>
@@ -3912,32 +4599,39 @@
       <c r="I90">
         <v>950</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <f t="shared" ca="1" si="8"/>
+        <v>103.31123665895507</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="9"/>
+        <v>178.14112897548677</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>121.88519057258991</v>
       </c>
       <c r="G91">
-        <f>40</f>
-        <v>40</v>
+        <v>174.40575457905655</v>
       </c>
       <c r="H91">
         <v>89</v>
@@ -3945,31 +4639,39 @@
       <c r="I91">
         <v>750</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <f t="shared" ca="1" si="8"/>
+        <v>122.0875002924594</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="9"/>
+        <v>156.20696156675376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>25</v>
+        <v>106.45490352000458</v>
       </c>
       <c r="G92">
-        <v>45</v>
+        <v>154.69446034221187</v>
       </c>
       <c r="H92">
         <v>90</v>
@@ -3977,31 +4679,39 @@
       <c r="I92">
         <v>750</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <f t="shared" ca="1" si="8"/>
+        <v>112.30431194991444</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="9"/>
+        <v>168.24512084415775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>35</v>
+        <v>124.34311050600122</v>
       </c>
       <c r="G93">
-        <v>65</v>
+        <v>164.39427364987287</v>
       </c>
       <c r="H93">
         <v>91</v>
@@ -4009,31 +4719,39 @@
       <c r="I93">
         <v>800</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <f t="shared" ca="1" si="8"/>
+        <v>121.99029981361299</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="9"/>
+        <v>176.44834336252504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>30</v>
+        <v>120.00727477589207</v>
       </c>
       <c r="G94">
-        <v>70</v>
+        <v>162.1919566349527</v>
       </c>
       <c r="H94">
         <v>92</v>
@@ -4041,31 +4759,39 @@
       <c r="I94">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <f t="shared" ca="1" si="8"/>
+        <v>112.23130179619953</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="9"/>
+        <v>154.33097168339435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>25</v>
+        <v>119.42817894560677</v>
       </c>
       <c r="G95">
-        <v>55</v>
+        <v>165.22755259491669</v>
       </c>
       <c r="H95">
         <v>93</v>
@@ -4073,32 +4799,39 @@
       <c r="I95">
         <v>950</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <f t="shared" ca="1" si="8"/>
+        <v>107.48488686974682</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="9"/>
+        <v>150.82266351234142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>111.63515199416243</v>
       </c>
       <c r="G96">
-        <f>40</f>
-        <v>40</v>
+        <v>179.2457628373617</v>
       </c>
       <c r="H96">
         <v>94</v>
@@ -4106,37 +4839,53 @@
       <c r="I96">
         <v>750</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <f t="shared" ca="1" si="8"/>
+        <v>125.30736960374036</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="9"/>
+        <v>162.52056833648413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>25</v>
+        <v>111.86175647828603</v>
       </c>
       <c r="G97">
-        <v>45</v>
+        <v>158.44709913760443</v>
       </c>
       <c r="H97">
         <v>95</v>
       </c>
       <c r="I97">
         <v>750</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="8"/>
+        <v>106.12541475579469</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="9"/>
+        <v>169.34569297065553</v>
       </c>
     </row>
   </sheetData>
